--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>

--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="11" t="n">
-        <v>77.8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" s="24">
@@ -964,7 +964,7 @@
       </c>
       <c r="C37" s="19" t="n"/>
       <c r="D37" s="11" t="n">
-        <v>90</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="24">
@@ -989,11 +989,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>

--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>
@@ -989,11 +989,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>
@@ -989,11 +989,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>
@@ -989,11 +989,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
+++ b/server/LISTAS/mi/CABLE ACERO Y ALAMBRE ROPA.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="8.25" customHeight="1" s="24"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="11" t="n">
-        <v>77.8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" s="24">
@@ -964,7 +964,7 @@
       </c>
       <c r="C37" s="19" t="n"/>
       <c r="D37" s="11" t="n">
-        <v>90</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="24">
@@ -989,11 +989,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
